--- a/Software timings.xlsx
+++ b/Software timings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ResearchProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1131597-1288-4D14-BEE3-0D2534222698}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5988CCD-F695-4CDE-A5DD-E750B7C2AAFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7995" windowHeight="6960" xr2:uid="{3368A43C-133A-46A9-B586-B6630A5265CA}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>UsingComplex</t>
   </si>
@@ -42,6 +42,12 @@
   </si>
   <si>
     <t>Number of visibilities</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>standard deviation</t>
   </si>
 </sst>
 </file>
@@ -1486,16 +1492,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>461961</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>166686</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1823,7 +1829,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="A23" sqref="A23:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1842,263 +1848,280 @@
     <col min="12" max="12" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3">
         <v>721572276</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>595707985</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>471013685</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4">
         <v>707869718</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>598323862</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>549086228</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5">
         <v>737278067</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>564050352</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>529862565</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6">
         <v>702845398</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>576725692</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>473142139</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7">
         <v>695590810</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>553444657</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>492900328</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8">
         <v>736351787</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>552710596</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>481913999</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9">
         <v>709737198</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>553394920</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>472064892</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>685787637</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>553895508</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>477841998</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11">
         <v>687502981</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>558225850</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>466101420</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12">
         <v>707462460</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>602770354</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>444948252</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13">
         <v>741156094</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>644431864</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>437897000</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14">
         <v>738374038</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>570869009</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>576250265</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15">
         <v>733327775</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>569788252</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>439863662</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16">
         <v>704690643</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>557532749</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>444330050</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="B17">
         <v>695773960</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>550730184</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>439328257</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="B18">
         <v>693642581</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>558114673</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>453925497</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="B19">
         <v>717103548</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>556702141</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>451920508</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="B20">
         <v>699835136</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>545330788</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>445945041</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="B21">
         <v>686543933</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>549577455</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>442779424</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="B22">
         <v>681117621</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>557249541</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>447959976</v>
       </c>
     </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <f xml:space="preserve"> AVERAGE(A3:A22)</f>
-        <v>709178183.04999995</v>
+      <c r="A24" t="s">
+        <v>4</v>
       </c>
       <c r="B24">
         <f xml:space="preserve"> AVERAGE(B3:B22)</f>
-        <v>568478821.60000002</v>
+        <v>709178183.04999995</v>
       </c>
       <c r="C24">
         <f xml:space="preserve"> AVERAGE(C3:C22)</f>
+        <v>568478821.60000002</v>
+      </c>
+      <c r="D24">
+        <f xml:space="preserve"> AVERAGE(D3:D22)</f>
         <v>471953759.30000001</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <f xml:space="preserve"> _xlfn.STDEV.P(A3:A22)</f>
-        <v>19075383.324346717</v>
+      <c r="A25" t="s">
+        <v>5</v>
       </c>
       <c r="B25">
-        <f xml:space="preserve"> _xlfn.STDEV.P(B3:B22)</f>
-        <v>23866385.689493336</v>
+        <f xml:space="preserve"> _xlfn.STDEV.S(B3:B22)</f>
+        <v>19570930.348505873</v>
       </c>
       <c r="C25">
-        <f xml:space="preserve"> _xlfn.STDEV.P(C3:C22)</f>
-        <v>37660242.253383279</v>
+        <f xml:space="preserve"> _xlfn.STDEV.S(C3:C22)</f>
+        <v>24486395.059935074</v>
+      </c>
+      <c r="D25">
+        <f xml:space="preserve"> _xlfn.STDEV.S(D3:D22)</f>
+        <v>38638593.28625387</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
